--- a/src/test/resources/2007NoModelMultipleSheet.xlsx
+++ b/src/test/resources/2007NoModelMultipleSheet.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jipengfei/project/alibabaeasyexcel/easyexcel1/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8467D99-7D93-A54D-A99B-BD08D480D920}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="16120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>article_detail_id</t>
   </si>
@@ -35,12 +41,20 @@
     <t>article_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sdsds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,13 +101,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,23 +371,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="63.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="6" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -386,13 +405,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,77 +441,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276ABE50-F0C8-B44C-8AEB-8B74F5F754C9}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="6" width="28.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
